--- a/utilities/Excel_Sheets/Products/CYB_PAS_PICA.xlsx
+++ b/utilities/Excel_Sheets/Products/CYB_PAS_PICA.xlsx
@@ -624,7 +624,7 @@
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -728,7 +728,7 @@
     <row r="5" spans="1:9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B6" s="21">
         <v>43221</v>
@@ -737,7 +737,7 @@
         <v>2</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E6" s="13" t="s">
         <v>6</v>
@@ -756,7 +756,7 @@
     <row r="7" spans="1:9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B8" s="21">
         <v>43221</v>
@@ -765,7 +765,7 @@
         <v>2</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E8" s="13" t="s">
         <v>6</v>
